--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar_vd4yoas\Downloads\E-books\apostilas-pdf-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Users\lazaro\Lazaroni Dev\terminal-pdf-generation-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D594DB-DCFD-4461-AF0B-EF61F1BAAC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57299309-D054-4229-B094-38394715E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NOME</t>
   </si>
@@ -39,13 +39,10 @@
     <t>CPF</t>
   </si>
   <si>
-    <t>FULANO DE SOUZA E SILVA</t>
+    <t>Fulano Da Silva</t>
   </si>
   <si>
-    <t>BEUTRANO DA SILVA ALVES</t>
-  </si>
-  <si>
-    <t>CICRANO OLIVEIRA SOUSA</t>
+    <t>Cicrano Matias</t>
   </si>
 </sst>
 </file>
@@ -87,15 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -435,7 +429,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,24 +452,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>12345678901</v>
+        <v>12345678980</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>11234567890</v>
+      <c r="B3" s="2">
+        <v>32165498790</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>23456789012</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
